--- a/tmp/testbed_tracker_downloaded.xlsx
+++ b/tmp/testbed_tracker_downloaded.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24102"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cisco-my.sharepoint.com/personal/keshn_cisco_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4122" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9823C11C-1583-40EC-9C55-991FE4EA0B33}"/>
+  <xr:revisionPtr revIDLastSave="4129" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71C005B6-CB32-4166-80DB-67B8237AC793}"/>
   <bookViews>
     <workbookView xWindow="800" yWindow="540" windowWidth="31080" windowHeight="17980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -363,7 +363,7 @@
     <t>Eyrie</t>
   </si>
   <si>
-    <t>Port 2/15</t>
+    <t>Ixia 10.64.109.98 Port 2/15</t>
   </si>
   <si>
     <t>7.1.10.159</t>
@@ -2093,8 +2093,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AE61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="75" zoomScaleNormal="63" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="63" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18"/>
@@ -2196,7 +2196,7 @@
         <v>17</v>
       </c>
       <c r="H2" s="57" t="b">
-        <f>IF(ISBLANK(G2), "NA", AND(VALUE(LEFT(G2, FIND(".", G2)-1))&lt;256, VALUE(MID(G2, FIND(".", G2)+1, FIND(".", G2, FIND(".", G2)+1)-FIND(".", G2)-1))&lt;256, VALUE(MID(G2, FIND(".",G2,FIND(".", G2)+1)+1, FIND(".", G2, FIND(".",G2,FIND(".", G2)+1)+1)-FIND(".",G2,FIND(".", G2)+1)-1))&lt;256, VALUE(RIGHT(G2,LEN(G2)-FIND(".",G2,FIND(".",G2,FIND(".",G2)+1)+1)))&lt;256))</f>
+        <f t="shared" ref="H2:H10" si="0">IF(ISBLANK(G2), "NA", AND(VALUE(LEFT(G2, FIND(".", G2)-1))&lt;256, VALUE(MID(G2, FIND(".", G2)+1, FIND(".", G2, FIND(".", G2)+1)-FIND(".", G2)-1))&lt;256, VALUE(MID(G2, FIND(".",G2,FIND(".", G2)+1)+1, FIND(".", G2, FIND(".",G2,FIND(".", G2)+1)+1)-FIND(".",G2,FIND(".", G2)+1)-1))&lt;256, VALUE(RIGHT(G2,LEN(G2)-FIND(".",G2,FIND(".",G2,FIND(".",G2)+1)+1)))&lt;256))</f>
         <v>1</v>
       </c>
       <c r="I2" s="57"/>
@@ -2232,7 +2232,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="57" t="b">
-        <f>IF(ISBLANK(B3), "NA", AND(VALUE(LEFT(B3, FIND(".", B3)-1))&lt;256, VALUE(MID(B3, FIND(".", B3)+1, FIND(".", B3, FIND(".", B3)+1)-FIND(".", B3)-1))&lt;256, VALUE(MID(B3, FIND(".",B3,FIND(".", B3)+1)+1, FIND(".", B3, FIND(".",B3,FIND(".", B3)+1)+1)-FIND(".",B3,FIND(".", B3)+1)-1))&lt;256, VALUE(RIGHT(B3,LEN(B3)-FIND(".",B3,FIND(".",B3,FIND(".",B3)+1)+1)))&lt;256))</f>
+        <f t="shared" ref="C3:C10" si="1">IF(ISBLANK(B3), "NA", AND(VALUE(LEFT(B3, FIND(".", B3)-1))&lt;256, VALUE(MID(B3, FIND(".", B3)+1, FIND(".", B3, FIND(".", B3)+1)-FIND(".", B3)-1))&lt;256, VALUE(MID(B3, FIND(".",B3,FIND(".", B3)+1)+1, FIND(".", B3, FIND(".",B3,FIND(".", B3)+1)+1)-FIND(".",B3,FIND(".", B3)+1)-1))&lt;256, VALUE(RIGHT(B3,LEN(B3)-FIND(".",B3,FIND(".",B3,FIND(".",B3)+1)+1)))&lt;256))</f>
         <v>1</v>
       </c>
       <c r="D3" s="57">
@@ -2246,7 +2246,7 @@
         <v>25</v>
       </c>
       <c r="H3" s="58" t="b">
-        <f>IF(ISBLANK(G3), "NA", AND(VALUE(LEFT(G3, FIND(".", G3)-1))&lt;256, VALUE(MID(G3, FIND(".", G3)+1, FIND(".", G3, FIND(".", G3)+1)-FIND(".", G3)-1))&lt;256, VALUE(MID(G3, FIND(".",G3,FIND(".", G3)+1)+1, FIND(".", G3, FIND(".",G3,FIND(".", G3)+1)+1)-FIND(".",G3,FIND(".", G3)+1)-1))&lt;256, VALUE(RIGHT(G3,LEN(G3)-FIND(".",G3,FIND(".",G3,FIND(".",G3)+1)+1)))&lt;256))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I3" s="58"/>
@@ -2255,7 +2255,7 @@
         <v>26</v>
       </c>
       <c r="L3" s="57" t="str">
-        <f ca="1">IF(ISBLANK(J3),"FREE",IF(OR(ISBLANK(N3),N3&lt;TODAY()),"ETA EXPIRED","OCCUPIED"))</f>
+        <f t="shared" ref="L3:L29" ca="1" si="2">IF(ISBLANK(J3),"FREE",IF(OR(ISBLANK(N3),N3&lt;TODAY()),"ETA EXPIRED","OCCUPIED"))</f>
         <v>FREE</v>
       </c>
       <c r="M3" s="57"/>
@@ -2289,7 +2289,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="57" t="b">
-        <f>IF(ISBLANK(B4), "NA", AND(VALUE(LEFT(B4, FIND(".", B4)-1))&lt;256, VALUE(MID(B4, FIND(".", B4)+1, FIND(".", B4, FIND(".", B4)+1)-FIND(".", B4)-1))&lt;256, VALUE(MID(B4, FIND(".",B4,FIND(".", B4)+1)+1, FIND(".", B4, FIND(".",B4,FIND(".", B4)+1)+1)-FIND(".",B4,FIND(".", B4)+1)-1))&lt;256, VALUE(RIGHT(B4,LEN(B4)-FIND(".",B4,FIND(".",B4,FIND(".",B4)+1)+1)))&lt;256))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D4" s="57">
@@ -2303,7 +2303,7 @@
         <v>31</v>
       </c>
       <c r="H4" s="57" t="b">
-        <f>IF(ISBLANK(G4), "NA", AND(VALUE(LEFT(G4, FIND(".", G4)-1))&lt;256, VALUE(MID(G4, FIND(".", G4)+1, FIND(".", G4, FIND(".", G4)+1)-FIND(".", G4)-1))&lt;256, VALUE(MID(G4, FIND(".",G4,FIND(".", G4)+1)+1, FIND(".", G4, FIND(".",G4,FIND(".", G4)+1)+1)-FIND(".",G4,FIND(".", G4)+1)-1))&lt;256, VALUE(RIGHT(G4,LEN(G4)-FIND(".",G4,FIND(".",G4,FIND(".",G4)+1)+1)))&lt;256))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I4" s="57"/>
@@ -2314,7 +2314,7 @@
         <v>33</v>
       </c>
       <c r="L4" s="57" t="str">
-        <f ca="1">IF(ISBLANK(J4),"FREE",IF(OR(ISBLANK(N4),N4&lt;TODAY()),"ETA EXPIRED","OCCUPIED"))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>ETA EXPIRED</v>
       </c>
       <c r="M4" s="57" t="s">
@@ -2353,7 +2353,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="57" t="b">
-        <f>IF(ISBLANK(B5), "NA", AND(VALUE(LEFT(B5, FIND(".", B5)-1))&lt;256, VALUE(MID(B5, FIND(".", B5)+1, FIND(".", B5, FIND(".", B5)+1)-FIND(".", B5)-1))&lt;256, VALUE(MID(B5, FIND(".",B5,FIND(".", B5)+1)+1, FIND(".", B5, FIND(".",B5,FIND(".", B5)+1)+1)-FIND(".",B5,FIND(".", B5)+1)-1))&lt;256, VALUE(RIGHT(B5,LEN(B5)-FIND(".",B5,FIND(".",B5,FIND(".",B5)+1)+1)))&lt;256))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D5" s="57">
@@ -2365,7 +2365,7 @@
         <v>38</v>
       </c>
       <c r="H5" s="57" t="b">
-        <f>IF(ISBLANK(G5), "NA", AND(VALUE(LEFT(G5, FIND(".", G5)-1))&lt;256, VALUE(MID(G5, FIND(".", G5)+1, FIND(".", G5, FIND(".", G5)+1)-FIND(".", G5)-1))&lt;256, VALUE(MID(G5, FIND(".",G5,FIND(".", G5)+1)+1, FIND(".", G5, FIND(".",G5,FIND(".", G5)+1)+1)-FIND(".",G5,FIND(".", G5)+1)-1))&lt;256, VALUE(RIGHT(G5,LEN(G5)-FIND(".",G5,FIND(".",G5,FIND(".",G5)+1)+1)))&lt;256))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I5" s="57"/>
@@ -2407,7 +2407,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="57" t="b">
-        <f>IF(ISBLANK(B6), "NA", AND(VALUE(LEFT(B6, FIND(".", B6)-1))&lt;256, VALUE(MID(B6, FIND(".", B6)+1, FIND(".", B6, FIND(".", B6)+1)-FIND(".", B6)-1))&lt;256, VALUE(MID(B6, FIND(".",B6,FIND(".", B6)+1)+1, FIND(".", B6, FIND(".",B6,FIND(".", B6)+1)+1)-FIND(".",B6,FIND(".", B6)+1)-1))&lt;256, VALUE(RIGHT(B6,LEN(B6)-FIND(".",B6,FIND(".",B6,FIND(".",B6)+1)+1)))&lt;256))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D6" s="57">
@@ -2419,7 +2419,7 @@
         <v>42</v>
       </c>
       <c r="H6" s="57" t="b">
-        <f>IF(ISBLANK(G6), "NA", AND(VALUE(LEFT(G6, FIND(".", G6)-1))&lt;256, VALUE(MID(G6, FIND(".", G6)+1, FIND(".", G6, FIND(".", G6)+1)-FIND(".", G6)-1))&lt;256, VALUE(MID(G6, FIND(".",G6,FIND(".", G6)+1)+1, FIND(".", G6, FIND(".",G6,FIND(".", G6)+1)+1)-FIND(".",G6,FIND(".", G6)+1)-1))&lt;256, VALUE(RIGHT(G6,LEN(G6)-FIND(".",G6,FIND(".",G6,FIND(".",G6)+1)+1)))&lt;256))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I6" s="57"/>
@@ -2430,7 +2430,7 @@
         <v>26</v>
       </c>
       <c r="L6" s="57" t="str">
-        <f ca="1">IF(ISBLANK(J6),"FREE",IF(OR(ISBLANK(N6),N6&lt;TODAY()),"ETA EXPIRED","OCCUPIED"))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>ETA EXPIRED</v>
       </c>
       <c r="M6" s="70"/>
@@ -2463,7 +2463,7 @@
         <v>15</v>
       </c>
       <c r="C7" s="57" t="b">
-        <f>IF(ISBLANK(B7), "NA", AND(VALUE(LEFT(B7, FIND(".", B7)-1))&lt;256, VALUE(MID(B7, FIND(".", B7)+1, FIND(".", B7, FIND(".", B7)+1)-FIND(".", B7)-1))&lt;256, VALUE(MID(B7, FIND(".",B7,FIND(".", B7)+1)+1, FIND(".", B7, FIND(".",B7,FIND(".", B7)+1)+1)-FIND(".",B7,FIND(".", B7)+1)-1))&lt;256, VALUE(RIGHT(B7,LEN(B7)-FIND(".",B7,FIND(".",B7,FIND(".",B7)+1)+1)))&lt;256))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D7" s="57">
@@ -2475,7 +2475,7 @@
         <v>45</v>
       </c>
       <c r="H7" s="57" t="b">
-        <f>IF(ISBLANK(G7), "NA", AND(VALUE(LEFT(G7, FIND(".", G7)-1))&lt;256, VALUE(MID(G7, FIND(".", G7)+1, FIND(".", G7, FIND(".", G7)+1)-FIND(".", G7)-1))&lt;256, VALUE(MID(G7, FIND(".",G7,FIND(".", G7)+1)+1, FIND(".", G7, FIND(".",G7,FIND(".", G7)+1)+1)-FIND(".",G7,FIND(".", G7)+1)-1))&lt;256, VALUE(RIGHT(G7,LEN(G7)-FIND(".",G7,FIND(".",G7,FIND(".",G7)+1)+1)))&lt;256))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I7" s="57"/>
@@ -2486,14 +2486,14 @@
         <v>47</v>
       </c>
       <c r="L7" s="57" t="str">
-        <f ca="1">IF(ISBLANK(J7),"FREE",IF(OR(ISBLANK(N7),N7&lt;TODAY()),"ETA EXPIRED","OCCUPIED"))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>OCCUPIED</v>
       </c>
       <c r="M7" s="57" t="s">
         <v>48</v>
       </c>
       <c r="N7" s="59">
-        <v>44330</v>
+        <v>44347</v>
       </c>
       <c r="Q7" s="13"/>
       <c r="R7" s="17"/>
@@ -2519,7 +2519,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="57" t="b">
-        <f>IF(ISBLANK(B8), "NA", AND(VALUE(LEFT(B8, FIND(".", B8)-1))&lt;256, VALUE(MID(B8, FIND(".", B8)+1, FIND(".", B8, FIND(".", B8)+1)-FIND(".", B8)-1))&lt;256, VALUE(MID(B8, FIND(".",B8,FIND(".", B8)+1)+1, FIND(".", B8, FIND(".",B8,FIND(".", B8)+1)+1)-FIND(".",B8,FIND(".", B8)+1)-1))&lt;256, VALUE(RIGHT(B8,LEN(B8)-FIND(".",B8,FIND(".",B8,FIND(".",B8)+1)+1)))&lt;256))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D8" s="57">
@@ -2533,7 +2533,7 @@
         <v>51</v>
       </c>
       <c r="H8" s="57" t="b">
-        <f>IF(ISBLANK(G8), "NA", AND(VALUE(LEFT(G8, FIND(".", G8)-1))&lt;256, VALUE(MID(G8, FIND(".", G8)+1, FIND(".", G8, FIND(".", G8)+1)-FIND(".", G8)-1))&lt;256, VALUE(MID(G8, FIND(".",G8,FIND(".", G8)+1)+1, FIND(".", G8, FIND(".",G8,FIND(".", G8)+1)+1)-FIND(".",G8,FIND(".", G8)+1)-1))&lt;256, VALUE(RIGHT(G8,LEN(G8)-FIND(".",G8,FIND(".",G8,FIND(".",G8)+1)+1)))&lt;256))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I8" s="57"/>
@@ -2542,7 +2542,7 @@
         <v>26</v>
       </c>
       <c r="L8" s="57" t="str">
-        <f ca="1">IF(ISBLANK(J8),"FREE",IF(OR(ISBLANK(N8),N8&lt;TODAY()),"ETA EXPIRED","OCCUPIED"))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>FREE</v>
       </c>
       <c r="M8" s="57"/>
@@ -2570,7 +2570,7 @@
         <v>15</v>
       </c>
       <c r="C9" s="57" t="b">
-        <f>IF(ISBLANK(B9), "NA", AND(VALUE(LEFT(B9, FIND(".", B9)-1))&lt;256, VALUE(MID(B9, FIND(".", B9)+1, FIND(".", B9, FIND(".", B9)+1)-FIND(".", B9)-1))&lt;256, VALUE(MID(B9, FIND(".",B9,FIND(".", B9)+1)+1, FIND(".", B9, FIND(".",B9,FIND(".", B9)+1)+1)-FIND(".",B9,FIND(".", B9)+1)-1))&lt;256, VALUE(RIGHT(B9,LEN(B9)-FIND(".",B9,FIND(".",B9,FIND(".",B9)+1)+1)))&lt;256))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D9" s="57">
@@ -2584,7 +2584,7 @@
         <v>54</v>
       </c>
       <c r="H9" s="57" t="b">
-        <f>IF(ISBLANK(G9), "NA", AND(VALUE(LEFT(G9, FIND(".", G9)-1))&lt;256, VALUE(MID(G9, FIND(".", G9)+1, FIND(".", G9, FIND(".", G9)+1)-FIND(".", G9)-1))&lt;256, VALUE(MID(G9, FIND(".",G9,FIND(".", G9)+1)+1, FIND(".", G9, FIND(".",G9,FIND(".", G9)+1)+1)-FIND(".",G9,FIND(".", G9)+1)-1))&lt;256, VALUE(RIGHT(G9,LEN(G9)-FIND(".",G9,FIND(".",G9,FIND(".",G9)+1)+1)))&lt;256))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I9" s="57"/>
@@ -2595,7 +2595,7 @@
         <v>56</v>
       </c>
       <c r="L9" s="57" t="str">
-        <f ca="1">IF(ISBLANK(J9),"FREE",IF(OR(ISBLANK(N9),N9&lt;TODAY()),"ETA EXPIRED","OCCUPIED"))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>ETA EXPIRED</v>
       </c>
       <c r="M9" s="57" t="s">
@@ -2629,7 +2629,7 @@
         <v>15</v>
       </c>
       <c r="C10" s="57" t="b">
-        <f>IF(ISBLANK(B10), "NA", AND(VALUE(LEFT(B10, FIND(".", B10)-1))&lt;256, VALUE(MID(B10, FIND(".", B10)+1, FIND(".", B10, FIND(".", B10)+1)-FIND(".", B10)-1))&lt;256, VALUE(MID(B10, FIND(".",B10,FIND(".", B10)+1)+1, FIND(".", B10, FIND(".",B10,FIND(".", B10)+1)+1)-FIND(".",B10,FIND(".", B10)+1)-1))&lt;256, VALUE(RIGHT(B10,LEN(B10)-FIND(".",B10,FIND(".",B10,FIND(".",B10)+1)+1)))&lt;256))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D10" s="57">
@@ -2643,7 +2643,7 @@
         <v>61</v>
       </c>
       <c r="H10" s="57" t="b">
-        <f>IF(ISBLANK(G10), "NA", AND(VALUE(LEFT(G10, FIND(".", G10)-1))&lt;256, VALUE(MID(G10, FIND(".", G10)+1, FIND(".", G10, FIND(".", G10)+1)-FIND(".", G10)-1))&lt;256, VALUE(MID(G10, FIND(".",G10,FIND(".", G10)+1)+1, FIND(".", G10, FIND(".",G10,FIND(".", G10)+1)+1)-FIND(".",G10,FIND(".", G10)+1)-1))&lt;256, VALUE(RIGHT(G10,LEN(G10)-FIND(".",G10,FIND(".",G10,FIND(".",G10)+1)+1)))&lt;256))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I10" s="57"/>
@@ -2654,7 +2654,7 @@
         <v>63</v>
       </c>
       <c r="L10" s="57" t="str">
-        <f ca="1">IF(ISBLANK(J10),"FREE",IF(OR(ISBLANK(N10),N10&lt;TODAY()),"ETA EXPIRED","OCCUPIED"))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>OCCUPIED</v>
       </c>
       <c r="M10" s="57"/>
@@ -2693,7 +2693,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="57">
-        <v>2013</v>
+        <v>2031</v>
       </c>
       <c r="E11" s="58"/>
       <c r="F11" s="58" t="s">
@@ -2711,7 +2711,7 @@
       </c>
       <c r="K11" s="57"/>
       <c r="L11" s="57" t="str">
-        <f ca="1">IF(ISBLANK(J11),"FREE",IF(OR(ISBLANK(N11),N11&lt;TODAY()),"ETA EXPIRED","OCCUPIED"))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>OCCUPIED</v>
       </c>
       <c r="M11" s="57"/>
@@ -2746,7 +2746,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="57" t="b">
-        <f>IF(ISBLANK(B12), "NA", AND(VALUE(LEFT(B12, FIND(".", B12)-1))&lt;256, VALUE(MID(B12, FIND(".", B12)+1, FIND(".", B12, FIND(".", B12)+1)-FIND(".", B12)-1))&lt;256, VALUE(MID(B12, FIND(".",B12,FIND(".", B12)+1)+1, FIND(".", B12, FIND(".",B12,FIND(".", B12)+1)+1)-FIND(".",B12,FIND(".", B12)+1)-1))&lt;256, VALUE(RIGHT(B12,LEN(B12)-FIND(".",B12,FIND(".",B12,FIND(".",B12)+1)+1)))&lt;256))</f>
+        <f t="shared" ref="C12:C29" si="3">IF(ISBLANK(B12), "NA", AND(VALUE(LEFT(B12, FIND(".", B12)-1))&lt;256, VALUE(MID(B12, FIND(".", B12)+1, FIND(".", B12, FIND(".", B12)+1)-FIND(".", B12)-1))&lt;256, VALUE(MID(B12, FIND(".",B12,FIND(".", B12)+1)+1, FIND(".", B12, FIND(".",B12,FIND(".", B12)+1)+1)-FIND(".",B12,FIND(".", B12)+1)-1))&lt;256, VALUE(RIGHT(B12,LEN(B12)-FIND(".",B12,FIND(".",B12,FIND(".",B12)+1)+1)))&lt;256))</f>
         <v>1</v>
       </c>
       <c r="D12" s="58">
@@ -2760,7 +2760,7 @@
         <v>73</v>
       </c>
       <c r="H12" s="57" t="b">
-        <f>IF(ISBLANK(G12), "NA", AND(VALUE(LEFT(G12, FIND(".", G12)-1))&lt;256, VALUE(MID(G12, FIND(".", G12)+1, FIND(".", G12, FIND(".", G12)+1)-FIND(".", G12)-1))&lt;256, VALUE(MID(G12, FIND(".",G12,FIND(".", G12)+1)+1, FIND(".", G12, FIND(".",G12,FIND(".", G12)+1)+1)-FIND(".",G12,FIND(".", G12)+1)-1))&lt;256, VALUE(RIGHT(G12,LEN(G12)-FIND(".",G12,FIND(".",G12,FIND(".",G12)+1)+1)))&lt;256))</f>
+        <f t="shared" ref="H12:H29" si="4">IF(ISBLANK(G12), "NA", AND(VALUE(LEFT(G12, FIND(".", G12)-1))&lt;256, VALUE(MID(G12, FIND(".", G12)+1, FIND(".", G12, FIND(".", G12)+1)-FIND(".", G12)-1))&lt;256, VALUE(MID(G12, FIND(".",G12,FIND(".", G12)+1)+1, FIND(".", G12, FIND(".",G12,FIND(".", G12)+1)+1)-FIND(".",G12,FIND(".", G12)+1)-1))&lt;256, VALUE(RIGHT(G12,LEN(G12)-FIND(".",G12,FIND(".",G12,FIND(".",G12)+1)+1)))&lt;256))</f>
         <v>1</v>
       </c>
       <c r="I12" s="57"/>
@@ -2771,14 +2771,14 @@
         <v>74</v>
       </c>
       <c r="L12" s="57" t="str">
-        <f ca="1">IF(ISBLANK(J12),"FREE",IF(OR(ISBLANK(N12),N12&lt;TODAY()),"ETA EXPIRED","OCCUPIED"))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>OCCUPIED</v>
       </c>
       <c r="M12" s="57" t="s">
         <v>48</v>
       </c>
       <c r="N12" s="59">
-        <v>44330</v>
+        <v>44347</v>
       </c>
       <c r="Q12" s="13"/>
       <c r="R12" s="17"/>
@@ -2810,7 +2810,7 @@
         <v>15</v>
       </c>
       <c r="C13" s="57" t="b">
-        <f>IF(ISBLANK(B13), "NA", AND(VALUE(LEFT(B13, FIND(".", B13)-1))&lt;256, VALUE(MID(B13, FIND(".", B13)+1, FIND(".", B13, FIND(".", B13)+1)-FIND(".", B13)-1))&lt;256, VALUE(MID(B13, FIND(".",B13,FIND(".", B13)+1)+1, FIND(".", B13, FIND(".",B13,FIND(".", B13)+1)+1)-FIND(".",B13,FIND(".", B13)+1)-1))&lt;256, VALUE(RIGHT(B13,LEN(B13)-FIND(".",B13,FIND(".",B13,FIND(".",B13)+1)+1)))&lt;256))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D13" s="57">
@@ -2826,7 +2826,7 @@
         <v>78</v>
       </c>
       <c r="H13" s="57" t="b">
-        <f>IF(ISBLANK(G13), "NA", AND(VALUE(LEFT(G13, FIND(".", G13)-1))&lt;256, VALUE(MID(G13, FIND(".", G13)+1, FIND(".", G13, FIND(".", G13)+1)-FIND(".", G13)-1))&lt;256, VALUE(MID(G13, FIND(".",G13,FIND(".", G13)+1)+1, FIND(".", G13, FIND(".",G13,FIND(".", G13)+1)+1)-FIND(".",G13,FIND(".", G13)+1)-1))&lt;256, VALUE(RIGHT(G13,LEN(G13)-FIND(".",G13,FIND(".",G13,FIND(".",G13)+1)+1)))&lt;256))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I13" s="57" t="s">
@@ -2839,7 +2839,7 @@
         <v>81</v>
       </c>
       <c r="L13" s="57" t="str">
-        <f ca="1">IF(ISBLANK(J13),"FREE",IF(OR(ISBLANK(N13),N13&lt;TODAY()),"ETA EXPIRED","OCCUPIED"))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>ETA EXPIRED</v>
       </c>
       <c r="M13" s="57"/>
@@ -2877,7 +2877,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="57" t="b">
-        <f>IF(ISBLANK(B14), "NA", AND(VALUE(LEFT(B14, FIND(".", B14)-1))&lt;256, VALUE(MID(B14, FIND(".", B14)+1, FIND(".", B14, FIND(".", B14)+1)-FIND(".", B14)-1))&lt;256, VALUE(MID(B14, FIND(".",B14,FIND(".", B14)+1)+1, FIND(".", B14, FIND(".",B14,FIND(".", B14)+1)+1)-FIND(".",B14,FIND(".", B14)+1)-1))&lt;256, VALUE(RIGHT(B14,LEN(B14)-FIND(".",B14,FIND(".",B14,FIND(".",B14)+1)+1)))&lt;256))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D14" s="57">
@@ -2889,7 +2889,7 @@
         <v>84</v>
       </c>
       <c r="H14" s="57" t="b">
-        <f>IF(ISBLANK(G14), "NA", AND(VALUE(LEFT(G14, FIND(".", G14)-1))&lt;256, VALUE(MID(G14, FIND(".", G14)+1, FIND(".", G14, FIND(".", G14)+1)-FIND(".", G14)-1))&lt;256, VALUE(MID(G14, FIND(".",G14,FIND(".", G14)+1)+1, FIND(".", G14, FIND(".",G14,FIND(".", G14)+1)+1)-FIND(".",G14,FIND(".", G14)+1)-1))&lt;256, VALUE(RIGHT(G14,LEN(G14)-FIND(".",G14,FIND(".",G14,FIND(".",G14)+1)+1)))&lt;256))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I14" s="57"/>
@@ -2900,7 +2900,7 @@
         <v>44</v>
       </c>
       <c r="L14" s="57" t="str">
-        <f ca="1">IF(ISBLANK(J14),"FREE",IF(OR(ISBLANK(N14),N14&lt;TODAY()),"ETA EXPIRED","OCCUPIED"))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>OCCUPIED</v>
       </c>
       <c r="M14" s="57" t="s">
@@ -2940,7 +2940,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="57" t="b">
-        <f>IF(ISBLANK(B15), "NA", AND(VALUE(LEFT(B15, FIND(".", B15)-1))&lt;256, VALUE(MID(B15, FIND(".", B15)+1, FIND(".", B15, FIND(".", B15)+1)-FIND(".", B15)-1))&lt;256, VALUE(MID(B15, FIND(".",B15,FIND(".", B15)+1)+1, FIND(".", B15, FIND(".",B15,FIND(".", B15)+1)+1)-FIND(".",B15,FIND(".", B15)+1)-1))&lt;256, VALUE(RIGHT(B15,LEN(B15)-FIND(".",B15,FIND(".",B15,FIND(".",B15)+1)+1)))&lt;256))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D15" s="57">
@@ -2952,7 +2952,7 @@
         <v>86</v>
       </c>
       <c r="H15" s="57" t="b">
-        <f>IF(ISBLANK(G15), "NA", AND(VALUE(LEFT(G15, FIND(".", G15)-1))&lt;256, VALUE(MID(G15, FIND(".", G15)+1, FIND(".", G15, FIND(".", G15)+1)-FIND(".", G15)-1))&lt;256, VALUE(MID(G15, FIND(".",G15,FIND(".", G15)+1)+1, FIND(".", G15, FIND(".",G15,FIND(".", G15)+1)+1)-FIND(".",G15,FIND(".", G15)+1)-1))&lt;256, VALUE(RIGHT(G15,LEN(G15)-FIND(".",G15,FIND(".",G15,FIND(".",G15)+1)+1)))&lt;256))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I15" s="57"/>
@@ -2995,7 +2995,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="57" t="b">
-        <f>IF(ISBLANK(B16), "NA", AND(VALUE(LEFT(B16, FIND(".", B16)-1))&lt;256, VALUE(MID(B16, FIND(".", B16)+1, FIND(".", B16, FIND(".", B16)+1)-FIND(".", B16)-1))&lt;256, VALUE(MID(B16, FIND(".",B16,FIND(".", B16)+1)+1, FIND(".", B16, FIND(".",B16,FIND(".", B16)+1)+1)-FIND(".",B16,FIND(".", B16)+1)-1))&lt;256, VALUE(RIGHT(B16,LEN(B16)-FIND(".",B16,FIND(".",B16,FIND(".",B16)+1)+1)))&lt;256))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D16" s="57">
@@ -3007,7 +3007,7 @@
         <v>90</v>
       </c>
       <c r="H16" s="57" t="b">
-        <f>IF(ISBLANK(G16), "NA", AND(VALUE(LEFT(G16, FIND(".", G16)-1))&lt;256, VALUE(MID(G16, FIND(".", G16)+1, FIND(".", G16, FIND(".", G16)+1)-FIND(".", G16)-1))&lt;256, VALUE(MID(G16, FIND(".",G16,FIND(".", G16)+1)+1, FIND(".", G16, FIND(".",G16,FIND(".", G16)+1)+1)-FIND(".",G16,FIND(".", G16)+1)-1))&lt;256, VALUE(RIGHT(G16,LEN(G16)-FIND(".",G16,FIND(".",G16,FIND(".",G16)+1)+1)))&lt;256))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I16" s="57"/>
@@ -3016,7 +3016,7 @@
         <v>26</v>
       </c>
       <c r="L16" s="57" t="str">
-        <f ca="1">IF(ISBLANK(J16),"FREE",IF(OR(ISBLANK(N16),N16&lt;TODAY()),"ETA EXPIRED","OCCUPIED"))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>FREE</v>
       </c>
       <c r="M16" s="57"/>
@@ -3051,7 +3051,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="57" t="b">
-        <f>IF(ISBLANK(B17), "NA", AND(VALUE(LEFT(B17, FIND(".", B17)-1))&lt;256, VALUE(MID(B17, FIND(".", B17)+1, FIND(".", B17, FIND(".", B17)+1)-FIND(".", B17)-1))&lt;256, VALUE(MID(B17, FIND(".",B17,FIND(".", B17)+1)+1, FIND(".", B17, FIND(".",B17,FIND(".", B17)+1)+1)-FIND(".",B17,FIND(".", B17)+1)-1))&lt;256, VALUE(RIGHT(B17,LEN(B17)-FIND(".",B17,FIND(".",B17,FIND(".",B17)+1)+1)))&lt;256))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D17" s="57">
@@ -3063,7 +3063,7 @@
         <v>92</v>
       </c>
       <c r="H17" s="57" t="b">
-        <f>IF(ISBLANK(G17), "NA", AND(VALUE(LEFT(G17, FIND(".", G17)-1))&lt;256, VALUE(MID(G17, FIND(".", G17)+1, FIND(".", G17, FIND(".", G17)+1)-FIND(".", G17)-1))&lt;256, VALUE(MID(G17, FIND(".",G17,FIND(".", G17)+1)+1, FIND(".", G17, FIND(".",G17,FIND(".", G17)+1)+1)-FIND(".",G17,FIND(".", G17)+1)-1))&lt;256, VALUE(RIGHT(G17,LEN(G17)-FIND(".",G17,FIND(".",G17,FIND(".",G17)+1)+1)))&lt;256))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I17" s="57"/>
@@ -3072,7 +3072,7 @@
         <v>26</v>
       </c>
       <c r="L17" s="57" t="str">
-        <f ca="1">IF(ISBLANK(J17),"FREE",IF(OR(ISBLANK(N17),N17&lt;TODAY()),"ETA EXPIRED","OCCUPIED"))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>FREE</v>
       </c>
       <c r="M17" s="57"/>
@@ -3104,7 +3104,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="57" t="b">
-        <f>IF(ISBLANK(B18), "NA", AND(VALUE(LEFT(B18, FIND(".", B18)-1))&lt;256, VALUE(MID(B18, FIND(".", B18)+1, FIND(".", B18, FIND(".", B18)+1)-FIND(".", B18)-1))&lt;256, VALUE(MID(B18, FIND(".",B18,FIND(".", B18)+1)+1, FIND(".", B18, FIND(".",B18,FIND(".", B18)+1)+1)-FIND(".",B18,FIND(".", B18)+1)-1))&lt;256, VALUE(RIGHT(B18,LEN(B18)-FIND(".",B18,FIND(".",B18,FIND(".",B18)+1)+1)))&lt;256))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D18" s="57">
@@ -3118,7 +3118,7 @@
         <v>97</v>
       </c>
       <c r="H18" s="57" t="b">
-        <f>IF(ISBLANK(G18), "NA", AND(VALUE(LEFT(G18, FIND(".", G18)-1))&lt;256, VALUE(MID(G18, FIND(".", G18)+1, FIND(".", G18, FIND(".", G18)+1)-FIND(".", G18)-1))&lt;256, VALUE(MID(G18, FIND(".",G18,FIND(".", G18)+1)+1, FIND(".", G18, FIND(".",G18,FIND(".", G18)+1)+1)-FIND(".",G18,FIND(".", G18)+1)-1))&lt;256, VALUE(RIGHT(G18,LEN(G18)-FIND(".",G18,FIND(".",G18,FIND(".",G18)+1)+1)))&lt;256))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I18" s="57"/>
@@ -3163,7 +3163,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="57" t="b">
-        <f>IF(ISBLANK(B19), "NA", AND(VALUE(LEFT(B19, FIND(".", B19)-1))&lt;256, VALUE(MID(B19, FIND(".", B19)+1, FIND(".", B19, FIND(".", B19)+1)-FIND(".", B19)-1))&lt;256, VALUE(MID(B19, FIND(".",B19,FIND(".", B19)+1)+1, FIND(".", B19, FIND(".",B19,FIND(".", B19)+1)+1)-FIND(".",B19,FIND(".", B19)+1)-1))&lt;256, VALUE(RIGHT(B19,LEN(B19)-FIND(".",B19,FIND(".",B19,FIND(".",B19)+1)+1)))&lt;256))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D19" s="57">
@@ -3175,7 +3175,7 @@
         <v>101</v>
       </c>
       <c r="H19" s="57" t="b">
-        <f>IF(ISBLANK(G19), "NA", AND(VALUE(LEFT(G19, FIND(".", G19)-1))&lt;256, VALUE(MID(G19, FIND(".", G19)+1, FIND(".", G19, FIND(".", G19)+1)-FIND(".", G19)-1))&lt;256, VALUE(MID(G19, FIND(".",G19,FIND(".", G19)+1)+1, FIND(".", G19, FIND(".",G19,FIND(".", G19)+1)+1)-FIND(".",G19,FIND(".", G19)+1)-1))&lt;256, VALUE(RIGHT(G19,LEN(G19)-FIND(".",G19,FIND(".",G19,FIND(".",G19)+1)+1)))&lt;256))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I19" s="57"/>
@@ -3184,7 +3184,7 @@
         <v>39</v>
       </c>
       <c r="L19" s="57" t="str">
-        <f ca="1">IF(ISBLANK(J19),"FREE",IF(OR(ISBLANK(N19),N19&lt;TODAY()),"ETA EXPIRED","OCCUPIED"))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>FREE</v>
       </c>
       <c r="M19" s="57"/>
@@ -3219,7 +3219,7 @@
         <v>15</v>
       </c>
       <c r="C20" s="57" t="b">
-        <f>IF(ISBLANK(B20), "NA", AND(VALUE(LEFT(B20, FIND(".", B20)-1))&lt;256, VALUE(MID(B20, FIND(".", B20)+1, FIND(".", B20, FIND(".", B20)+1)-FIND(".", B20)-1))&lt;256, VALUE(MID(B20, FIND(".",B20,FIND(".", B20)+1)+1, FIND(".", B20, FIND(".",B20,FIND(".", B20)+1)+1)-FIND(".",B20,FIND(".", B20)+1)-1))&lt;256, VALUE(RIGHT(B20,LEN(B20)-FIND(".",B20,FIND(".",B20,FIND(".",B20)+1)+1)))&lt;256))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D20" s="57">
@@ -3233,7 +3233,7 @@
         <v>103</v>
       </c>
       <c r="H20" s="57" t="b">
-        <f>IF(ISBLANK(G20), "NA", AND(VALUE(LEFT(G20, FIND(".", G20)-1))&lt;256, VALUE(MID(G20, FIND(".", G20)+1, FIND(".", G20, FIND(".", G20)+1)-FIND(".", G20)-1))&lt;256, VALUE(MID(G20, FIND(".",G20,FIND(".", G20)+1)+1, FIND(".", G20, FIND(".",G20,FIND(".", G20)+1)+1)-FIND(".",G20,FIND(".", G20)+1)-1))&lt;256, VALUE(RIGHT(G20,LEN(G20)-FIND(".",G20,FIND(".",G20,FIND(".",G20)+1)+1)))&lt;256))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I20" s="57"/>
@@ -3244,7 +3244,7 @@
         <v>41</v>
       </c>
       <c r="L20" s="57" t="str">
-        <f ca="1">IF(ISBLANK(J20),"FREE",IF(OR(ISBLANK(N20),N20&lt;TODAY()),"ETA EXPIRED","OCCUPIED"))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>OCCUPIED</v>
       </c>
       <c r="M20" s="57" t="s">
@@ -3281,7 +3281,7 @@
         <v>15</v>
       </c>
       <c r="C21" s="57" t="b">
-        <f>IF(ISBLANK(B21), "NA", AND(VALUE(LEFT(B21, FIND(".", B21)-1))&lt;256, VALUE(MID(B21, FIND(".", B21)+1, FIND(".", B21, FIND(".", B21)+1)-FIND(".", B21)-1))&lt;256, VALUE(MID(B21, FIND(".",B21,FIND(".", B21)+1)+1, FIND(".", B21, FIND(".",B21,FIND(".", B21)+1)+1)-FIND(".",B21,FIND(".", B21)+1)-1))&lt;256, VALUE(RIGHT(B21,LEN(B21)-FIND(".",B21,FIND(".",B21,FIND(".",B21)+1)+1)))&lt;256))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D21" s="57">
@@ -3295,7 +3295,7 @@
         <v>110</v>
       </c>
       <c r="H21" s="57" t="b">
-        <f>IF(ISBLANK(G21), "NA", AND(VALUE(LEFT(G21, FIND(".", G21)-1))&lt;256, VALUE(MID(G21, FIND(".", G21)+1, FIND(".", G21, FIND(".", G21)+1)-FIND(".", G21)-1))&lt;256, VALUE(MID(G21, FIND(".",G21,FIND(".", G21)+1)+1, FIND(".", G21, FIND(".",G21,FIND(".", G21)+1)+1)-FIND(".",G21,FIND(".", G21)+1)-1))&lt;256, VALUE(RIGHT(G21,LEN(G21)-FIND(".",G21,FIND(".",G21,FIND(".",G21)+1)+1)))&lt;256))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I21" s="57"/>
@@ -3304,7 +3304,7 @@
       </c>
       <c r="K21" s="57"/>
       <c r="L21" s="57" t="str">
-        <f ca="1">IF(ISBLANK(J21),"FREE",IF(OR(ISBLANK(N21),N21&lt;TODAY()),"ETA EXPIRED","OCCUPIED"))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>OCCUPIED</v>
       </c>
       <c r="M21" s="57" t="s">
@@ -3341,7 +3341,7 @@
         <v>15</v>
       </c>
       <c r="C22" s="57" t="b">
-        <f>IF(ISBLANK(B22), "NA", AND(VALUE(LEFT(B22, FIND(".", B22)-1))&lt;256, VALUE(MID(B22, FIND(".", B22)+1, FIND(".", B22, FIND(".", B22)+1)-FIND(".", B22)-1))&lt;256, VALUE(MID(B22, FIND(".",B22,FIND(".", B22)+1)+1, FIND(".", B22, FIND(".",B22,FIND(".", B22)+1)+1)-FIND(".",B22,FIND(".", B22)+1)-1))&lt;256, VALUE(RIGHT(B22,LEN(B22)-FIND(".",B22,FIND(".",B22,FIND(".",B22)+1)+1)))&lt;256))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D22" s="57">
@@ -3355,7 +3355,7 @@
         <v>118</v>
       </c>
       <c r="H22" s="57" t="b">
-        <f>IF(ISBLANK(G22), "NA", AND(VALUE(LEFT(G22, FIND(".", G22)-1))&lt;256, VALUE(MID(G22, FIND(".", G22)+1, FIND(".", G22, FIND(".", G22)+1)-FIND(".", G22)-1))&lt;256, VALUE(MID(G22, FIND(".",G22,FIND(".", G22)+1)+1, FIND(".", G22, FIND(".",G22,FIND(".", G22)+1)+1)-FIND(".",G22,FIND(".", G22)+1)-1))&lt;256, VALUE(RIGHT(G22,LEN(G22)-FIND(".",G22,FIND(".",G22,FIND(".",G22)+1)+1)))&lt;256))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I22" s="57"/>
@@ -3366,7 +3366,7 @@
         <v>2027</v>
       </c>
       <c r="L22" s="57" t="str">
-        <f ca="1">IF(ISBLANK(J22),"FREE",IF(OR(ISBLANK(N22),N22&lt;TODAY()),"ETA EXPIRED","OCCUPIED"))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>OCCUPIED</v>
       </c>
       <c r="M22" s="57" t="s">
@@ -3407,7 +3407,7 @@
         <v>15</v>
       </c>
       <c r="C23" s="57" t="b">
-        <f>IF(ISBLANK(B23), "NA", AND(VALUE(LEFT(B23, FIND(".", B23)-1))&lt;256, VALUE(MID(B23, FIND(".", B23)+1, FIND(".", B23, FIND(".", B23)+1)-FIND(".", B23)-1))&lt;256, VALUE(MID(B23, FIND(".",B23,FIND(".", B23)+1)+1, FIND(".", B23, FIND(".",B23,FIND(".", B23)+1)+1)-FIND(".",B23,FIND(".", B23)+1)-1))&lt;256, VALUE(RIGHT(B23,LEN(B23)-FIND(".",B23,FIND(".",B23,FIND(".",B23)+1)+1)))&lt;256))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D23" s="57">
@@ -3419,7 +3419,7 @@
         <v>122</v>
       </c>
       <c r="H23" s="57" t="b">
-        <f>IF(ISBLANK(G23), "NA", AND(VALUE(LEFT(G23, FIND(".", G23)-1))&lt;256, VALUE(MID(G23, FIND(".", G23)+1, FIND(".", G23, FIND(".", G23)+1)-FIND(".", G23)-1))&lt;256, VALUE(MID(G23, FIND(".",G23,FIND(".", G23)+1)+1, FIND(".", G23, FIND(".",G23,FIND(".", G23)+1)+1)-FIND(".",G23,FIND(".", G23)+1)-1))&lt;256, VALUE(RIGHT(G23,LEN(G23)-FIND(".",G23,FIND(".",G23,FIND(".",G23)+1)+1)))&lt;256))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I23" s="57"/>
@@ -3430,7 +3430,7 @@
         <v>39</v>
       </c>
       <c r="L23" s="57" t="str">
-        <f ca="1">IF(ISBLANK(J23),"FREE",IF(OR(ISBLANK(N23),N23&lt;TODAY()),"ETA EXPIRED","OCCUPIED"))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>ETA EXPIRED</v>
       </c>
       <c r="M23" s="57"/>
@@ -3461,7 +3461,7 @@
         <v>126</v>
       </c>
       <c r="C24" s="57" t="b">
-        <f>IF(ISBLANK(B24), "NA", AND(VALUE(LEFT(B24, FIND(".", B24)-1))&lt;256, VALUE(MID(B24, FIND(".", B24)+1, FIND(".", B24, FIND(".", B24)+1)-FIND(".", B24)-1))&lt;256, VALUE(MID(B24, FIND(".",B24,FIND(".", B24)+1)+1, FIND(".", B24, FIND(".",B24,FIND(".", B24)+1)+1)-FIND(".",B24,FIND(".", B24)+1)-1))&lt;256, VALUE(RIGHT(B24,LEN(B24)-FIND(".",B24,FIND(".",B24,FIND(".",B24)+1)+1)))&lt;256))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D24" s="57">
@@ -3475,7 +3475,7 @@
         <v>128</v>
       </c>
       <c r="H24" s="57" t="b">
-        <f>IF(ISBLANK(G24), "NA", AND(VALUE(LEFT(G24, FIND(".", G24)-1))&lt;256, VALUE(MID(G24, FIND(".", G24)+1, FIND(".", G24, FIND(".", G24)+1)-FIND(".", G24)-1))&lt;256, VALUE(MID(G24, FIND(".",G24,FIND(".", G24)+1)+1, FIND(".", G24, FIND(".",G24,FIND(".", G24)+1)+1)-FIND(".",G24,FIND(".", G24)+1)-1))&lt;256, VALUE(RIGHT(G24,LEN(G24)-FIND(".",G24,FIND(".",G24,FIND(".",G24)+1)+1)))&lt;256))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I24" s="57"/>
@@ -3486,7 +3486,7 @@
         <v>63</v>
       </c>
       <c r="L24" s="57" t="str">
-        <f ca="1">IF(ISBLANK(J24),"FREE",IF(OR(ISBLANK(N24),N24&lt;TODAY()),"ETA EXPIRED","OCCUPIED"))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>OCCUPIED</v>
       </c>
       <c r="M24" s="57" t="s">
@@ -3512,7 +3512,7 @@
         <v>15</v>
       </c>
       <c r="C25" s="57" t="b">
-        <f>IF(ISBLANK(B25), "NA", AND(VALUE(LEFT(B25, FIND(".", B25)-1))&lt;256, VALUE(MID(B25, FIND(".", B25)+1, FIND(".", B25, FIND(".", B25)+1)-FIND(".", B25)-1))&lt;256, VALUE(MID(B25, FIND(".",B25,FIND(".", B25)+1)+1, FIND(".", B25, FIND(".",B25,FIND(".", B25)+1)+1)-FIND(".",B25,FIND(".", B25)+1)-1))&lt;256, VALUE(RIGHT(B25,LEN(B25)-FIND(".",B25,FIND(".",B25,FIND(".",B25)+1)+1)))&lt;256))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D25" s="57">
@@ -3524,7 +3524,7 @@
         <v>131</v>
       </c>
       <c r="H25" s="57" t="b">
-        <f>IF(ISBLANK(G25), "NA", AND(VALUE(LEFT(G25, FIND(".", G25)-1))&lt;256, VALUE(MID(G25, FIND(".", G25)+1, FIND(".", G25, FIND(".", G25)+1)-FIND(".", G25)-1))&lt;256, VALUE(MID(G25, FIND(".",G25,FIND(".", G25)+1)+1, FIND(".", G25, FIND(".",G25,FIND(".", G25)+1)+1)-FIND(".",G25,FIND(".", G25)+1)-1))&lt;256, VALUE(RIGHT(G25,LEN(G25)-FIND(".",G25,FIND(".",G25,FIND(".",G25)+1)+1)))&lt;256))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I25" s="57" t="s">
@@ -3537,7 +3537,7 @@
         <v>81</v>
       </c>
       <c r="L25" s="57" t="str">
-        <f ca="1">IF(ISBLANK(J25),"FREE",IF(OR(ISBLANK(N25),N25&lt;TODAY()),"ETA EXPIRED","OCCUPIED"))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>OCCUPIED</v>
       </c>
       <c r="M25" s="57" t="s">
@@ -3563,7 +3563,7 @@
         <v>15</v>
       </c>
       <c r="C26" s="57" t="b">
-        <f>IF(ISBLANK(B26), "NA", AND(VALUE(LEFT(B26, FIND(".", B26)-1))&lt;256, VALUE(MID(B26, FIND(".", B26)+1, FIND(".", B26, FIND(".", B26)+1)-FIND(".", B26)-1))&lt;256, VALUE(MID(B26, FIND(".",B26,FIND(".", B26)+1)+1, FIND(".", B26, FIND(".",B26,FIND(".", B26)+1)+1)-FIND(".",B26,FIND(".", B26)+1)-1))&lt;256, VALUE(RIGHT(B26,LEN(B26)-FIND(".",B26,FIND(".",B26,FIND(".",B26)+1)+1)))&lt;256))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D26" s="57">
@@ -3577,7 +3577,7 @@
         <v>134</v>
       </c>
       <c r="H26" s="57" t="b">
-        <f>IF(ISBLANK(G26), "NA", AND(VALUE(LEFT(G26, FIND(".", G26)-1))&lt;256, VALUE(MID(G26, FIND(".", G26)+1, FIND(".", G26, FIND(".", G26)+1)-FIND(".", G26)-1))&lt;256, VALUE(MID(G26, FIND(".",G26,FIND(".", G26)+1)+1, FIND(".", G26, FIND(".",G26,FIND(".", G26)+1)+1)-FIND(".",G26,FIND(".", G26)+1)-1))&lt;256, VALUE(RIGHT(G26,LEN(G26)-FIND(".",G26,FIND(".",G26,FIND(".",G26)+1)+1)))&lt;256))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I26" s="57"/>
@@ -3588,7 +3588,7 @@
         <v>81</v>
       </c>
       <c r="L26" s="57" t="str">
-        <f ca="1">IF(ISBLANK(J26),"FREE",IF(OR(ISBLANK(N26),N26&lt;TODAY()),"ETA EXPIRED","OCCUPIED"))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>OCCUPIED</v>
       </c>
       <c r="M26" s="57" t="s">
@@ -3614,7 +3614,7 @@
         <v>15</v>
       </c>
       <c r="C27" s="57" t="b">
-        <f>IF(ISBLANK(B27), "NA", AND(VALUE(LEFT(B27, FIND(".", B27)-1))&lt;256, VALUE(MID(B27, FIND(".", B27)+1, FIND(".", B27, FIND(".", B27)+1)-FIND(".", B27)-1))&lt;256, VALUE(MID(B27, FIND(".",B27,FIND(".", B27)+1)+1, FIND(".", B27, FIND(".",B27,FIND(".", B27)+1)+1)-FIND(".",B27,FIND(".", B27)+1)-1))&lt;256, VALUE(RIGHT(B27,LEN(B27)-FIND(".",B27,FIND(".",B27,FIND(".",B27)+1)+1)))&lt;256))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D27" s="57">
@@ -3628,7 +3628,7 @@
         <v>135</v>
       </c>
       <c r="H27" s="57" t="b">
-        <f>IF(ISBLANK(G27), "NA", AND(VALUE(LEFT(G27, FIND(".", G27)-1))&lt;256, VALUE(MID(G27, FIND(".", G27)+1, FIND(".", G27, FIND(".", G27)+1)-FIND(".", G27)-1))&lt;256, VALUE(MID(G27, FIND(".",G27,FIND(".", G27)+1)+1, FIND(".", G27, FIND(".",G27,FIND(".", G27)+1)+1)-FIND(".",G27,FIND(".", G27)+1)-1))&lt;256, VALUE(RIGHT(G27,LEN(G27)-FIND(".",G27,FIND(".",G27,FIND(".",G27)+1)+1)))&lt;256))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I27" s="57"/>
@@ -3639,14 +3639,14 @@
         <v>136</v>
       </c>
       <c r="L27" s="57" t="str">
-        <f ca="1">IF(ISBLANK(J27),"FREE",IF(OR(ISBLANK(N27),N27&lt;TODAY()),"ETA EXPIRED","OCCUPIED"))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>OCCUPIED</v>
       </c>
       <c r="M27" s="57" t="s">
         <v>48</v>
       </c>
       <c r="N27" s="59">
-        <v>44330</v>
+        <v>44347</v>
       </c>
       <c r="Q27" s="13"/>
       <c r="V27" s="9"/>
@@ -3679,7 +3679,7 @@
       <c r="J28" s="57"/>
       <c r="K28" s="57"/>
       <c r="L28" s="57" t="str">
-        <f ca="1">IF(ISBLANK(J28),"FREE",IF(OR(ISBLANK(N28),N28&lt;TODAY()),"ETA EXPIRED","OCCUPIED"))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>FREE</v>
       </c>
       <c r="M28" s="57"/>
@@ -3701,7 +3701,7 @@
         <v>15</v>
       </c>
       <c r="C29" s="57" t="b">
-        <f>IF(ISBLANK(B29), "NA", AND(VALUE(LEFT(B29, FIND(".", B29)-1))&lt;256, VALUE(MID(B29, FIND(".", B29)+1, FIND(".", B29, FIND(".", B29)+1)-FIND(".", B29)-1))&lt;256, VALUE(MID(B29, FIND(".",B29,FIND(".", B29)+1)+1, FIND(".", B29, FIND(".",B29,FIND(".", B29)+1)+1)-FIND(".",B29,FIND(".", B29)+1)-1))&lt;256, VALUE(RIGHT(B29,LEN(B29)-FIND(".",B29,FIND(".",B29,FIND(".",B29)+1)+1)))&lt;256))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D29" s="57">
@@ -3717,7 +3717,7 @@
         <v>139</v>
       </c>
       <c r="H29" s="57" t="b">
-        <f>IF(ISBLANK(G29), "NA", AND(VALUE(LEFT(G29, FIND(".", G29)-1))&lt;256, VALUE(MID(G29, FIND(".", G29)+1, FIND(".", G29, FIND(".", G29)+1)-FIND(".", G29)-1))&lt;256, VALUE(MID(G29, FIND(".",G29,FIND(".", G29)+1)+1, FIND(".", G29, FIND(".",G29,FIND(".", G29)+1)+1)-FIND(".",G29,FIND(".", G29)+1)-1))&lt;256, VALUE(RIGHT(G29,LEN(G29)-FIND(".",G29,FIND(".",G29,FIND(".",G29)+1)+1)))&lt;256))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I29" s="57"/>
@@ -3728,7 +3728,7 @@
         <v>95</v>
       </c>
       <c r="L29" s="57" t="str">
-        <f ca="1">IF(ISBLANK(J29),"FREE",IF(OR(ISBLANK(N29),N29&lt;TODAY()),"ETA EXPIRED","OCCUPIED"))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>ETA EXPIRED</v>
       </c>
       <c r="M29" s="57" t="s">
